--- a/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\mapping\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A5E6D2-976A-4BC5-9DA3-35863AE9ACAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>ZibName</t>
   </si>
@@ -61,17 +80,220 @@
     <t>TRANSLATIE_spec_terug</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Medicatieafspraak</t>
   </si>
   <si>
-    <t>Medicatie zibs momenteel on hold</t>
+    <t>NL-CM:9.6.1030</t>
+  </si>
+  <si>
+    <t>Voorschrijver::Zorgverlener</t>
+  </si>
+  <si>
+    <t>groen: geen wijziging</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.19757</t>
+  </si>
+  <si>
+    <t>MedicatieafspraakDatumTijd</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.19925</t>
+  </si>
+  <si>
+    <t>Afgesprokengeneesmiddel::FarmaceutischProduct</t>
+  </si>
+  <si>
+    <t>oranje: minor wijziging</t>
+  </si>
+  <si>
+    <t>ZIB-911</t>
+  </si>
+  <si>
+    <t>In engelse vertaling overal Farmaceutical vervangen door Pharmaceutical (7X)</t>
+  </si>
+  <si>
+    <t>CONCEPT NAME CHANGED (EN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEPT NAME CHANGED (EN): AgreedMedicine::FarmaceuticalProduct -&gt; AgreedMedicine::PharmaceuticalProduct </t>
+  </si>
+  <si>
+    <t>CONCEPT NAME CHANGED (EN): AgreedMedicine::PharmaceuticalProduct -&gt; AgreedMedicine::FarmaceuticalProduct</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.19936</t>
+  </si>
+  <si>
+    <t>Gebruiksperiode::TijdsInterval</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.19954</t>
+  </si>
+  <si>
+    <t>MedicatieafspraakStopType</t>
+  </si>
+  <si>
+    <t>MedicatieafspraakStopTypeCodelijst</t>
+  </si>
+  <si>
+    <t>ZIB-888</t>
+  </si>
+  <si>
+    <t>DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINOLOGY MAPPING CONCEPT CHANGE </t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [274512008 Behandeling met geneesmiddel stopgezet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [274512008 Behandeling met geneesmiddel stopgezet] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.22273</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
+  </si>
+  <si>
+    <t>ZIB-888|ZIB-1454</t>
+  </si>
+  <si>
+    <t>VALUESET CHANGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VALUESET CHANGES</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.23240</t>
+  </si>
+  <si>
+    <t>Gebruiksinstructie</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.23283</t>
+  </si>
+  <si>
+    <t>MedicatieafspraakAanvullendeInformatie</t>
+  </si>
+  <si>
+    <t>MedicatieafspraakAanvullendeInformatieCodelijst</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.22094</t>
+  </si>
+  <si>
+    <t>RedenMedicatieafspraak</t>
+  </si>
+  <si>
+    <t>RedenMedicatieafspraakCodelijst</t>
+  </si>
+  <si>
+    <t>DefinitionCode toegevoegd aan concept</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [112241000146101 Reden voor voorschrift]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [112241000146101 Reden voor voorschrift] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.23133</t>
+  </si>
+  <si>
+    <t>RedenVanVoorschrijven::Probleem</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [112201000146104 Medische reden van voorschrijven]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [112201000146104 Medische reden van voorschrijven] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.9580</t>
+  </si>
+  <si>
+    <t>DefinitionCode toegevoegd aan rootconcept</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [16076005 Voorschrijven]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [16076005 Voorschrijven] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.23023</t>
+  </si>
+  <si>
+    <t>Lichaamslengte</t>
+  </si>
+  <si>
+    <t>rood: major wijziging</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ZIB-1020</t>
+  </si>
+  <si>
+    <t>verwijzing naar zib lichaamslengte verwijderd</t>
+  </si>
+  <si>
+    <t>CONCEPT REMOVED</t>
+  </si>
+  <si>
+    <t>DELETED FIELD:  IF NL-CM:9.6.23023 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamslengte zib]</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.23028</t>
+  </si>
+  <si>
+    <t>Lichaamsgewicht</t>
+  </si>
+  <si>
+    <t>verwijzing naar zib lichaamsgewicht verwijderd</t>
+  </si>
+  <si>
+    <t>DELETED FIELD:  IF NL-CM:9.6.23028 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamsgewicht zib]</t>
+  </si>
+  <si>
+    <t>NL-CM:9.6.23033</t>
+  </si>
+  <si>
+    <t>GeannuleerdIndicator</t>
+  </si>
+  <si>
+    <t>ZIB-1021</t>
+  </si>
+  <si>
+    <t>geanuleerd indicator verwijderd</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>vgeanuleerde medicatieafspraken zijn conceptueel geen afspraken en bestaan ook niet als zodanig in publicatie 2020. Als translatie hiervoor nodig is zal er een non-zib data item moeten bestaan of worden aangemaakt in de dataset.</t>
+  </si>
+  <si>
+    <t>DefinitionCode toegevoegd aan concept
+Erratum. SCT codes in codelijst zijn vervangen. Klopten niet mee. Uiteindelijke lijst heeft 2 items (met 2 deprecated)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +310,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,9 +351,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -123,24 +361,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6857A58F-37AF-0844-853C-D07449BEE558}" name="Table1" displayName="Table1" ref="A1:O16" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:O16" xr:uid="{6857A58F-37AF-0844-853C-D07449BEE558}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{1A7B4B02-112E-B545-A552-8EFBCF17B8F7}" name="ZibName"/>
+    <tableColumn id="2" xr3:uid="{50B22E84-DC1B-6E47-8E2E-B827113AD00A}" name="ConceptID_2017"/>
+    <tableColumn id="3" xr3:uid="{078FCA97-2D35-0244-9213-F29E12CB197F}" name="ConceptName_2017"/>
+    <tableColumn id="4" xr3:uid="{EB7E0D71-BAEF-A047-A851-746ADD0F48F6}" name="Codelists_2017"/>
+    <tableColumn id="5" xr3:uid="{EE9120CB-50C1-4E42-AFD5-D6389532D5DA}" name="Change"/>
+    <tableColumn id="6" xr3:uid="{C4B60B25-3DDB-184C-97E2-9C2E1D317EC0}" name="ConceptID_2020"/>
+    <tableColumn id="7" xr3:uid="{FE8D53A8-93D9-8541-A509-555AB95DFFBF}" name="ConceptName_2020"/>
+    <tableColumn id="8" xr3:uid="{39BD8A52-445D-9C4A-BD8C-30FED6FA9DEF}" name="Codelists_2020"/>
+    <tableColumn id="9" xr3:uid="{59C4E602-55C0-6E49-ABB7-9A263CC3EE22}" name="Bits"/>
+    <tableColumn id="10" xr3:uid="{4E61526F-6862-AA46-A432-F85E4A10F6BD}" name="Omschrijving"/>
+    <tableColumn id="11" xr3:uid="{A4CD3601-98A8-594E-A455-E4A735344D40}" name="TypeChange" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{8B9CCC28-2BCA-EB4F-9B33-C32B554EE625}" name="Impact_heen" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{19A0AD34-1030-0F46-B7ED-AFAEAEED001C}" name="TRANSLATIE_spec_heen" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{C83F05E2-32D1-1F4B-8137-355EE865E389}" name="Impact_terug" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{BC09DA06-2792-4742-81C9-AE6522EB0978}" name="TRANSLATIE_spec_terug" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +516,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +550,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +585,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,14 +761,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="146.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,31 +820,546 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7"/>
+      <c r="M7" s="2"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="M14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\mapping\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9470789-ECE5-4EB6-A325-60EDF35FA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -157,15 +163,6 @@
     <t>RedenMedicatieafspraakCodelijst</t>
   </si>
   <si>
-    <t>groen: geen wijziging</t>
-  </si>
-  <si>
-    <t>oranje: minor wijziging</t>
-  </si>
-  <si>
-    <t>rood: major wijziging</t>
-  </si>
-  <si>
     <t>ZIB-911</t>
   </si>
   <si>
@@ -184,7 +181,7 @@
     <t>In engelse vertaling overal Farmaceutical vervangen door Pharmaceutical (7X)</t>
   </si>
   <si>
-    <t xml:space="preserve">DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
+    <t>DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
   </si>
   <si>
     <t>DefinitionCode toegevoegd aan concept
@@ -268,13 +265,22 @@
   </si>
   <si>
     <t xml:space="preserve">SCT DefintionCode [16076005 Voorschrijven] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t>groen: geen wijzigingen</t>
+  </si>
+  <si>
+    <t>oranje: minor change</t>
+  </si>
+  <si>
+    <t>rood: major change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +345,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -353,26 +366,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,7 +424,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -444,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -478,9 +493,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,12 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -667,7 +685,7 @@
     <col min="7" max="15" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -725,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -734,7 +752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -745,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -754,7 +772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -765,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -774,28 +792,28 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="s">
-        <v>69</v>
-      </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -806,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -815,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -829,7 +847,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -841,28 +859,28 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -873,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -882,7 +900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -896,7 +914,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -908,28 +926,28 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
         <v>64</v>
       </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -940,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -949,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -963,7 +981,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -975,7 +993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1001,28 +1019,28 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1042,28 +1060,28 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
         <v>63</v>
       </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1083,28 +1101,28 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
-        <v>66</v>
-      </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1115,28 +1133,28 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
         <v>65</v>
       </c>
-      <c r="L14" t="s">
-        <v>68</v>
-      </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1147,28 +1165,28 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
         <v>65</v>
       </c>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1179,40 +1197,40 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
         <v>65</v>
       </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O16"/>
+  <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\mapping\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9470789-ECE5-4EB6-A325-60EDF35FA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -163,6 +157,15 @@
     <t>RedenMedicatieafspraakCodelijst</t>
   </si>
   <si>
+    <t>groen: geen wijzigingen</t>
+  </si>
+  <si>
+    <t>oranje: minor change</t>
+  </si>
+  <si>
+    <t>rood: major change</t>
+  </si>
+  <si>
     <t>ZIB-911</t>
   </si>
   <si>
@@ -181,7 +184,7 @@
     <t>In engelse vertaling overal Farmaceutical vervangen door Pharmaceutical (7X)</t>
   </si>
   <si>
-    <t>DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
+    <t xml:space="preserve">DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
   </si>
   <si>
     <t>DefinitionCode toegevoegd aan concept
@@ -265,22 +268,13 @@
   </si>
   <si>
     <t xml:space="preserve">SCT DefintionCode [16076005 Voorschrijven] -&gt; [blank] </t>
-  </si>
-  <si>
-    <t>groen: geen wijzigingen</t>
-  </si>
-  <si>
-    <t>oranje: minor change</t>
-  </si>
-  <si>
-    <t>rood: major change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,7 +339,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
         </patternFill>
       </fill>
     </dxf>
@@ -359,34 +360,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFE403"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +410,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -458,7 +444,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,10 +478,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,14 +653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -685,7 +667,7 @@
     <col min="7" max="15" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -743,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -752,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -763,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -772,7 +754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -783,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -792,28 +774,28 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -824,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -833,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -847,7 +829,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -859,28 +841,28 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -891,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -900,7 +882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -914,7 +896,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -926,28 +908,28 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -958,7 +940,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -967,7 +949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -981,7 +963,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -993,7 +975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +989,7 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1019,28 +1001,28 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1033,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1060,28 +1042,28 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1101,28 +1083,28 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1133,28 +1115,28 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1165,28 +1147,28 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1197,40 +1179,40 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O16"/>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B0CCC2-BC2A-7441-8026-54A016D46A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="640" yWindow="1520" windowWidth="22020" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>ZibName</t>
   </si>
@@ -172,9 +178,6 @@
     <t>ZIB-888</t>
   </si>
   <si>
-    <t>ZIB-888|ZIB-1454</t>
-  </si>
-  <si>
     <t>ZIB-1020</t>
   </si>
   <si>
@@ -184,97 +187,105 @@
     <t>In engelse vertaling overal Farmaceutical vervangen door Pharmaceutical (7X)</t>
   </si>
   <si>
-    <t xml:space="preserve">DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
-  </si>
-  <si>
-    <t>DefinitionCode toegevoegd aan concept
+    <t>DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
+  </si>
+  <si>
+    <t>DefinitionCode toegevoegd aan concept</t>
+  </si>
+  <si>
+    <t>DefinitionCode toegevoegd aan rootconcept</t>
+  </si>
+  <si>
+    <t>verwijzing naar zib lichaamslengte verwijderd</t>
+  </si>
+  <si>
+    <t>verwijzing naar zib lichaamsgewicht verwijderd</t>
+  </si>
+  <si>
+    <t>geanuleerd indicator verwijderd</t>
+  </si>
+  <si>
+    <t>CONCEPT NAME CHANGED (EN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINOLOGY MAPPING CONCEPT CHANGE </t>
+  </si>
+  <si>
+    <t>VALUESET CHANGES</t>
+  </si>
+  <si>
+    <t>CONCEPT REMOVED</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEPT NAME CHANGED (EN): AgreedMedicine::FarmaceuticalProduct -&gt; AgreedMedicine::PharmaceuticalProduct </t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [274512008 Behandeling met geneesmiddel stopgezet]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [112241000146101 Reden voor voorschrift]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [112201000146104 Medische reden van voorschrijven]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [16076005 Voorschrijven]</t>
+  </si>
+  <si>
+    <t>DELETED FIELD:  IF NL-CM:9.6.23023 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamslengte zib]</t>
+  </si>
+  <si>
+    <t>DELETED FIELD:  IF NL-CM:9.6.23028 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamsgewicht zib]</t>
+  </si>
+  <si>
+    <t>vgeanuleerde medicatieafspraken zijn conceptueel geen afspraken en bestaan ook niet als zodanig in publicatie 2020. Als translatie hiervoor nodig is zal er een non-zib data item moeten bestaan of worden aangemaakt in de dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [112241000146101 Reden voor voorschrift] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [112201000146104 Medische reden van voorschrijven] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT DefintionCode [16076005 Voorschrijven] -&gt; [blank] </t>
+  </si>
+  <si>
+    <t>De deprecated codes Drug therapy temporarily stopped en Drug therapy definitively stopped zijn vervangen door: 113371000146109 |definitief gestopt met medicatie en 113381000146106 |tijdelijk gestopt met medicatie.
 Erratum. SCT codes in codelijst zijn vervangen. Klopten niet mee. Uiteindelijke lijst heeft 2 items (met 2 deprecated)</t>
   </si>
   <si>
-    <t>DefinitionCode toegevoegd aan concept</t>
-  </si>
-  <si>
-    <t>DefinitionCode toegevoegd aan rootconcept</t>
-  </si>
-  <si>
-    <t>verwijzing naar zib lichaamslengte verwijderd</t>
-  </si>
-  <si>
-    <t>verwijzing naar zib lichaamsgewicht verwijderd</t>
-  </si>
-  <si>
-    <t>geanuleerd indicator verwijderd</t>
-  </si>
-  <si>
-    <t>CONCEPT NAME CHANGED (EN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINOLOGY MAPPING CONCEPT CHANGE </t>
-  </si>
-  <si>
-    <t>VALUESET CHANGES</t>
-  </si>
-  <si>
-    <t>CONCEPT REMOVED</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONCEPT NAME CHANGED (EN): AgreedMedicine::FarmaceuticalProduct -&gt; AgreedMedicine::PharmaceuticalProduct </t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [274512008 Behandeling met geneesmiddel stopgezet]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VALUESET CHANGES</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [112241000146101 Reden voor voorschrift]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [112201000146104 Medische reden van voorschrijven]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [16076005 Voorschrijven]</t>
-  </si>
-  <si>
-    <t>DELETED FIELD:  IF NL-CM:9.6.23023 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamslengte zib]</t>
-  </si>
-  <si>
-    <t>DELETED FIELD:  IF NL-CM:9.6.23028 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamsgewicht zib]</t>
-  </si>
-  <si>
-    <t>vgeanuleerde medicatieafspraken zijn conceptueel geen afspraken en bestaan ook niet als zodanig in publicatie 2020. Als translatie hiervoor nodig is zal er een non-zib data item moeten bestaan of worden aangemaakt in de dataset.</t>
-  </si>
-  <si>
-    <t>CONCEPT NAME CHANGED (EN): AgreedMedicine::PharmaceuticalProduct -&gt; AgreedMedicine::FarmaceuticalProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCT DefintionCode [274512008 Behandeling met geneesmiddel stopgezet] -&gt; [blank] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCT DefintionCode [112241000146101 Reden voor voorschrift] -&gt; [blank] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCT DefintionCode [112201000146104 Medische reden van voorschrijven] -&gt; [blank] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCT DefintionCode [16076005 Voorschrijven] -&gt; [blank] </t>
+    <t>ZIB-1454</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [274512008 Behandeling met geneesmiddel stopgezet]-&gt;[blank]</t>
+  </si>
+  <si>
+    <t>AgreedMedicine::PharmaceuticalProduct -&gt; AgreedMedicine::FarmaceuticalProduct</t>
+  </si>
+  <si>
+    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>valuesets 2017 &lt;- valueset 2020 regel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,10 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,7 +353,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -353,26 +374,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,7 +432,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -444,6 +466,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -478,9 +501,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,21 +677,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -734,7 +760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -754,7 +780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -777,25 +803,25 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -815,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -844,25 +870,25 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -882,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -908,28 +934,28 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -949,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -975,7 +1001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1004,25 +1030,25 @@
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1045,25 +1071,25 @@
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1086,25 +1112,25 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1118,25 +1144,25 @@
         <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1150,25 +1176,25 @@
         <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1182,37 +1208,37 @@
         <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O16"/>
+  <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
+++ b/zib2017-2020/mapping/excel/Medicatieafspraak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B0CCC2-BC2A-7441-8026-54A016D46A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675042C2-402F-634B-830F-D0930FA9796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1520" windowWidth="22020" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="81">
   <si>
     <t>ZibName</t>
   </si>
@@ -220,15 +233,9 @@
     <t>low</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
-    <t xml:space="preserve">CONCEPT NAME CHANGED (EN): AgreedMedicine::FarmaceuticalProduct -&gt; AgreedMedicine::PharmaceuticalProduct </t>
-  </si>
-  <si>
     <t>SCT DefintionCode [blank] -&gt; [274512008 Behandeling met geneesmiddel stopgezet]</t>
   </si>
   <si>
@@ -239,15 +246,6 @@
   </si>
   <si>
     <t>SCT DefintionCode [blank] -&gt; [16076005 Voorschrijven]</t>
-  </si>
-  <si>
-    <t>DELETED FIELD:  IF NL-CM:9.6.23023 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamslengte zib]</t>
-  </si>
-  <si>
-    <t>DELETED FIELD:  IF NL-CM:9.6.23028 &lt;&gt; [blank] THEN source -&gt; target=[rootconcept lichaamsgewicht zib]</t>
-  </si>
-  <si>
-    <t>vgeanuleerde medicatieafspraken zijn conceptueel geen afspraken en bestaan ook niet als zodanig in publicatie 2020. Als translatie hiervoor nodig is zal er een non-zib data item moeten bestaan of worden aangemaakt in de dataset.</t>
   </si>
   <si>
     <t xml:space="preserve">SCT DefintionCode [112241000146101 Reden voor voorschrift] -&gt; [blank] </t>
@@ -269,16 +267,19 @@
     <t>SCT DefintionCode [274512008 Behandeling met geneesmiddel stopgezet]-&gt;[blank]</t>
   </si>
   <si>
-    <t>AgreedMedicine::PharmaceuticalProduct -&gt; AgreedMedicine::FarmaceuticalProduct</t>
-  </si>
-  <si>
-    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>valuesets 2017 &lt;- valueset 2020 regel</t>
+    <t>source -&gt; target</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>existing valueset [valuesetname] changed in [baseline 2020]</t>
+  </si>
+  <si>
+    <t>IF source &lt;&gt; [blank] THEN source -&gt; target=[non-zib item]</t>
   </si>
 </sst>
 </file>
@@ -680,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,19 +766,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -785,40 +807,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -826,19 +827,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -846,46 +868,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -893,19 +888,46 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="128" x14ac:dyDescent="0.2">
@@ -934,25 +956,25 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
         <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -960,19 +982,46 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -980,25 +1029,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1006,46 +1049,31 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1053,40 +1081,31 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1094,40 +1113,31 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1135,31 +1145,40 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1167,31 +1186,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1199,31 +1206,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
